--- a/Tests/Set 13 [New Code - Best Effort VS Reliable]/100,000,000 Iteration + 100,000 Latency Count/Reliable Unicast/Reliable Unicast Test Summary.xlsx
+++ b/Tests/Set 13 [New Code - Best Effort VS Reliable]/100,000,000 Iteration + 100,000 Latency Count/Reliable Unicast/Reliable Unicast Test Summary.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalee\Documents\Performance-Testing\Tests\Set 13 [New Code - Best Effort VS Reliable]\100,000,000 Iteration + 100,000 Latency Count\Reliable Unicast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B9EDD7-2B88-4B14-AC93-3F03B82562AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94BF215-3353-42F8-9F93-DE03F28D6886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Config" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>Test Configurations</t>
   </si>
@@ -103,9 +102,6 @@
     <t>Sub 5</t>
   </si>
   <si>
-    <t>Packets lost</t>
-  </si>
-  <si>
     <t>Average Throughput (mbps)</t>
   </si>
   <si>
@@ -131,6 +127,9 @@
   </si>
   <si>
     <t>Sub 0</t>
+  </si>
+  <si>
+    <t>Duration (h)</t>
   </si>
 </sst>
 </file>
@@ -399,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,6 +569,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,17 +869,18 @@
     <col min="5" max="5" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -888,7 +891,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
@@ -903,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
@@ -918,7 +921,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
@@ -933,7 +936,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="4"/>
       <c r="D8" s="7"/>
@@ -944,12 +947,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="19" t="s">
         <v>18</v>
@@ -961,38 +964,71 @@
         <v>16</v>
       </c>
       <c r="F11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="H11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="22">
+        <v>21</v>
+      </c>
+      <c r="D12" s="16">
+        <v>50019170</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>3723</v>
+      </c>
+      <c r="H12" s="23">
+        <v>350</v>
+      </c>
+      <c r="I12" s="23">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="20">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20">
+        <v>49264137</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3651</v>
+      </c>
+      <c r="H13" s="24">
+        <v>362</v>
+      </c>
+      <c r="I13" s="24">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
@@ -1000,22 +1036,26 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="25"/>
-    </row>
-    <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I14" s="25"/>
+    </row>
+    <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="27" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1023,17 +1063,35 @@
       <c r="B19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="40">
+        <v>468</v>
+      </c>
+      <c r="D19" s="41">
+        <v>468</v>
+      </c>
+      <c r="E19" s="41">
+        <v>2</v>
+      </c>
+      <c r="F19" s="42">
+        <v>6784</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="C20" s="44">
+        <v>530</v>
+      </c>
+      <c r="D20" s="45">
+        <v>531</v>
+      </c>
+      <c r="E20" s="45">
+        <v>2</v>
+      </c>
+      <c r="F20" s="46">
+        <v>7179</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="47" t="s">
@@ -1041,20 +1099,21 @@
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>20</v>
@@ -1073,21 +1132,41 @@
       <c r="B25" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="28">
+        <v>11</v>
+      </c>
+      <c r="D25" s="29">
+        <v>11</v>
+      </c>
+      <c r="E25" s="29">
+        <v>11</v>
+      </c>
+      <c r="F25" s="29">
+        <v>11</v>
+      </c>
+      <c r="G25" s="30">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
+      <c r="C26" s="51">
+        <v>11</v>
+      </c>
+      <c r="D26" s="52">
+        <v>11</v>
+      </c>
+      <c r="E26" s="52">
+        <v>11</v>
+      </c>
+      <c r="F26" s="52">
+        <v>11</v>
+      </c>
+      <c r="G26" s="53">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="47" t="s">
@@ -1110,7 +1189,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>20</v>
@@ -1129,23 +1208,43 @@
       <c r="B31" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
+      <c r="C31" s="28">
+        <v>49963983</v>
+      </c>
+      <c r="D31" s="29">
+        <v>49963983</v>
+      </c>
+      <c r="E31" s="29">
+        <v>49972053</v>
+      </c>
+      <c r="F31" s="29">
+        <v>49972053</v>
+      </c>
+      <c r="G31" s="30">
+        <v>49959573</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="51">
+        <v>49856388</v>
+      </c>
+      <c r="D32" s="52">
+        <v>49856388</v>
+      </c>
+      <c r="E32" s="52">
+        <v>49845462</v>
+      </c>
+      <c r="F32" s="52">
+        <v>49845475</v>
+      </c>
+      <c r="G32" s="53">
+        <v>49846725</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="47" t="s">
         <v>14</v>
       </c>
@@ -1155,389 +1254,461 @@
       <c r="F33" s="32"/>
       <c r="G33" s="33"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35" t="s">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+    </row>
+    <row r="37" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C39" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="40">
+        <v>613</v>
+      </c>
+      <c r="D40" s="41">
+        <v>614</v>
+      </c>
+      <c r="E40" s="41">
+        <v>3</v>
+      </c>
+      <c r="F40" s="42">
+        <v>10713</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="44">
+        <v>665</v>
+      </c>
+      <c r="D41" s="45">
+        <v>666</v>
+      </c>
+      <c r="E41" s="45">
+        <v>3</v>
+      </c>
+      <c r="F41" s="46">
+        <v>11036</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="48">
+        <v>654</v>
+      </c>
+      <c r="D42" s="49">
+        <v>655</v>
+      </c>
+      <c r="E42" s="49">
+        <v>3</v>
+      </c>
+      <c r="F42" s="50">
+        <v>11160</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="38" t="s">
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="30"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C45" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E45" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F45" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="54" t="s">
+      <c r="G45" s="38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="39" t="s">
+      <c r="H45" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="43" t="s">
+      <c r="C46" s="55">
+        <v>7</v>
+      </c>
+      <c r="D46" s="56">
+        <v>7</v>
+      </c>
+      <c r="E46" s="56">
+        <v>7</v>
+      </c>
+      <c r="F46" s="56">
+        <v>7</v>
+      </c>
+      <c r="G46" s="29">
+        <v>7</v>
+      </c>
+      <c r="H46" s="56">
+        <v>7</v>
+      </c>
+      <c r="I46" s="56">
+        <v>7</v>
+      </c>
+      <c r="J46" s="56">
+        <v>7</v>
+      </c>
+      <c r="K46" s="56">
+        <v>7</v>
+      </c>
+      <c r="L46" s="57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="47" t="s">
+      <c r="C47" s="51">
+        <v>7</v>
+      </c>
+      <c r="D47" s="52">
+        <v>7</v>
+      </c>
+      <c r="E47" s="52">
+        <v>7</v>
+      </c>
+      <c r="F47" s="52">
+        <v>7</v>
+      </c>
+      <c r="G47" s="52">
+        <v>7</v>
+      </c>
+      <c r="H47" s="52">
+        <v>7</v>
+      </c>
+      <c r="I47" s="52">
+        <v>7</v>
+      </c>
+      <c r="J47" s="52">
+        <v>7</v>
+      </c>
+      <c r="K47" s="52">
+        <v>7</v>
+      </c>
+      <c r="L47" s="53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="42" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="26" t="s">
+      <c r="C48" s="31">
+        <v>7</v>
+      </c>
+      <c r="D48" s="32">
+        <v>7</v>
+      </c>
+      <c r="E48" s="32">
+        <v>7</v>
+      </c>
+      <c r="F48" s="32">
+        <v>7</v>
+      </c>
+      <c r="G48" s="32">
+        <v>7</v>
+      </c>
+      <c r="H48" s="32">
+        <v>7</v>
+      </c>
+      <c r="I48" s="32">
+        <v>7</v>
+      </c>
+      <c r="J48" s="32">
+        <v>7</v>
+      </c>
+      <c r="K48" s="32">
+        <v>7</v>
+      </c>
+      <c r="L48" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="30"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C51" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="39" t="s">
+      <c r="J51" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="43" t="s">
+      <c r="C52" s="55">
+        <v>49927721</v>
+      </c>
+      <c r="D52" s="56">
+        <v>49927721</v>
+      </c>
+      <c r="E52" s="56">
+        <v>49927723</v>
+      </c>
+      <c r="F52" s="56">
+        <v>49924301</v>
+      </c>
+      <c r="G52" s="29">
+        <v>49926004</v>
+      </c>
+      <c r="H52" s="56">
+        <v>49924301</v>
+      </c>
+      <c r="I52" s="56">
+        <v>49921847</v>
+      </c>
+      <c r="J52" s="56">
+        <v>49921961</v>
+      </c>
+      <c r="K52" s="56">
+        <v>49921961</v>
+      </c>
+      <c r="L52" s="57">
+        <v>49921847</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="47" t="s">
+      <c r="C53" s="51">
+        <v>49959094</v>
+      </c>
+      <c r="D53" s="52">
+        <v>49959094</v>
+      </c>
+      <c r="E53" s="52">
+        <v>49959806</v>
+      </c>
+      <c r="F53" s="52">
+        <v>49965101</v>
+      </c>
+      <c r="G53" s="52">
+        <v>49965103</v>
+      </c>
+      <c r="H53" s="52">
+        <v>49965653</v>
+      </c>
+      <c r="I53" s="52">
+        <v>49962908</v>
+      </c>
+      <c r="J53" s="52">
+        <v>49962908</v>
+      </c>
+      <c r="K53" s="52">
+        <v>49962908</v>
+      </c>
+      <c r="L53" s="53">
+        <v>49963263</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="30"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C50" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K50" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" s="54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="57"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="53"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="33"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="30"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C56" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K56" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="57"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="53"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="33"/>
+      <c r="C54" s="31">
+        <v>49877407</v>
+      </c>
+      <c r="D54" s="32">
+        <v>49877407</v>
+      </c>
+      <c r="E54" s="32">
+        <v>49877407</v>
+      </c>
+      <c r="F54" s="32">
+        <v>49884476</v>
+      </c>
+      <c r="G54" s="32">
+        <v>49884476</v>
+      </c>
+      <c r="H54" s="32">
+        <v>49884477</v>
+      </c>
+      <c r="I54" s="32">
+        <v>49897558</v>
+      </c>
+      <c r="J54" s="32">
+        <v>49897558</v>
+      </c>
+      <c r="K54" s="32">
+        <v>49897553</v>
+      </c>
+      <c r="L54" s="33">
+        <v>49897553</v>
+      </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="30"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C62" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I62" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J62" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K62" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="54" t="s">
-        <v>33</v>
-      </c>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="57"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="53"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="58"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="33"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5E8189-77A6-42F3-98A4-F9125EC40CE2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>